--- a/doc/help_dialogs/Input_files/s7.xlsx
+++ b/doc/help_dialogs/Input_files/s7.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Modbus" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Modbus" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">If mode is set to C or F, readings are automatically converted to the temperature unit set for display.</t>
   </si>
   <si>
-    <t xml:space="preserve">The PID Control dialog can operate a connected PID slave using the given PID registers to set the p-i-d parameters and the set value (SV). S7 commands can be specified to turn the PID slave on and off from that PID Control dialog. See the help page in the Events Dialog for documentation of available S7 write commands.</t>
+    <t xml:space="preserve">The PID Control dialog can operate a connected PID using the given PID registers to set the p-i-d parameters and the set value (SV). S7 commands can be specified to turn the PID on and off from that PID Control dialog. See the help page in the Events Dialog for documentation of available S7 write commands.</t>
   </si>
   <si>
     <t xml:space="preserve">The Scan button opens a simple MODBUS scanner to search for data holding registers in the connected device.</t>
@@ -133,16 +133,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,77 +162,183 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="77.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
